--- a/lib/Winter_2020_Survey_EWB_S2B_National_April_26_2021_11_30_codebook.xlsx
+++ b/lib/Winter_2020_Survey_EWB_S2B_National_April_26_2021_11_30_codebook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashish/files/research/projects/collab/greg_bratman/nature_reappraisal/lib/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35220112-7805-3647-98FB-679F823F11CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5BC867F-A1FC-F147-847B-378CA2C6D437}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="800">
   <si>
     <t>old_col_name</t>
   </si>
@@ -1064,9 +1064,6 @@
     <t>When I'm feeling bad, if I try to describe how I'm feeling I don't know what to say.</t>
   </si>
   <si>
-    <t>PAQ_20</t>
-  </si>
-  <si>
     <t>paq_neg_dif_20</t>
   </si>
   <si>
@@ -1383,11 +1380,6 @@
   <si>
     <t xml:space="preserve">7
 (strongly agree) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Somewhat like me
-3
-</t>
   </si>
   <si>
     <t>pss_.*_r$</t>
@@ -2367,16 +2359,6 @@
     <t>sitselect_</t>
   </si>
   <si>
-    <t xml:space="preserve">Very much like me
-5
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not at all like me
-1
-</t>
-  </si>
-  <si>
     <t>panas_pos_1</t>
   </si>
   <si>
@@ -2435,6 +2417,36 @@
   </si>
   <si>
     <t>panas_neg_20</t>
+  </si>
+  <si>
+    <t>Not at all like me1</t>
+  </si>
+  <si>
+    <t>Somewhat like me3</t>
+  </si>
+  <si>
+    <t>Very much like me5</t>
+  </si>
+  <si>
+    <t>1Strongly disagree</t>
+  </si>
+  <si>
+    <t>2Disagree</t>
+  </si>
+  <si>
+    <t>3Slightly disagree</t>
+  </si>
+  <si>
+    <t>4Neither agree nor disagree</t>
+  </si>
+  <si>
+    <t>5Slightly agree</t>
+  </si>
+  <si>
+    <t>6Agree</t>
+  </si>
+  <si>
+    <t>7Strongly agree</t>
   </si>
 </sst>
 </file>
@@ -2781,8 +2793,8 @@
   </sheetPr>
   <dimension ref="A1:AA970"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="C214" sqref="C214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2804,10 +2816,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -3246,7 +3258,7 @@
         <v>39</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>40</v>
@@ -3283,7 +3295,7 @@
         <v>42</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>40</v>
@@ -3320,7 +3332,7 @@
         <v>44</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>40</v>
@@ -3357,7 +3369,7 @@
         <v>46</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>40</v>
@@ -3394,7 +3406,7 @@
         <v>48</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>40</v>
@@ -3431,7 +3443,7 @@
         <v>50</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>51</v>
@@ -3470,7 +3482,7 @@
         <v>54</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>51</v>
@@ -3509,7 +3521,7 @@
         <v>57</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>51</v>
@@ -3548,7 +3560,7 @@
         <v>59</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>51</v>
@@ -3587,7 +3599,7 @@
         <v>61</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>51</v>
@@ -3626,7 +3638,7 @@
         <v>63</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>51</v>
@@ -3665,7 +3677,7 @@
         <v>65</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>51</v>
@@ -3704,7 +3716,7 @@
         <v>67</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>51</v>
@@ -3743,7 +3755,7 @@
         <v>69</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>51</v>
@@ -3782,7 +3794,7 @@
         <v>71</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>51</v>
@@ -3821,7 +3833,7 @@
         <v>73</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>51</v>
@@ -3860,7 +3872,7 @@
         <v>75</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>51</v>
@@ -3899,7 +3911,7 @@
         <v>77</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>51</v>
@@ -3938,7 +3950,7 @@
         <v>79</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>51</v>
@@ -3977,7 +3989,7 @@
         <v>81</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>51</v>
@@ -4016,7 +4028,7 @@
         <v>83</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>51</v>
@@ -4055,7 +4067,7 @@
         <v>85</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>51</v>
@@ -4094,7 +4106,7 @@
         <v>87</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>51</v>
@@ -4133,7 +4145,7 @@
         <v>89</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>51</v>
@@ -4172,7 +4184,7 @@
         <v>91</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>51</v>
@@ -4581,7 +4593,7 @@
         <v>124</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>125</v>
@@ -4618,7 +4630,7 @@
         <v>127</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>128</v>
@@ -4652,18 +4664,18 @@
     </row>
     <row r="50" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
@@ -4689,18 +4701,18 @@
     </row>
     <row r="51" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>469</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>471</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="12" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
@@ -5355,10 +5367,10 @@
     </row>
     <row r="69" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>183</v>
@@ -5390,10 +5402,10 @@
     </row>
     <row r="70" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>184</v>
@@ -5425,10 +5437,10 @@
     </row>
     <row r="71" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>183</v>
@@ -5460,10 +5472,10 @@
     </row>
     <row r="72" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>184</v>
@@ -6116,7 +6128,7 @@
         <v>243</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>232</v>
@@ -6227,7 +6239,7 @@
         <v>251</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>232</v>
@@ -6449,7 +6461,7 @@
         <v>270</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>271</v>
@@ -6486,7 +6498,7 @@
         <v>273</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>271</v>
@@ -6523,7 +6535,7 @@
         <v>275</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>271</v>
@@ -6560,7 +6572,7 @@
         <v>277</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>271</v>
@@ -6597,7 +6609,7 @@
         <v>279</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>271</v>
@@ -6634,7 +6646,7 @@
         <v>281</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>271</v>
@@ -6677,10 +6689,10 @@
         <v>285</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>286</v>
@@ -6718,10 +6730,10 @@
         <v>285</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>289</v>
@@ -6762,7 +6774,7 @@
         <v>292</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>293</v>
@@ -6800,10 +6812,10 @@
         <v>285</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>296</v>
@@ -6841,10 +6853,10 @@
         <v>285</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>299</v>
@@ -6885,7 +6897,7 @@
         <v>292</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>302</v>
@@ -6923,10 +6935,10 @@
         <v>285</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>305</v>
@@ -6964,10 +6976,10 @@
         <v>285</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>308</v>
@@ -7008,7 +7020,7 @@
         <v>292</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>311</v>
@@ -7046,10 +7058,10 @@
         <v>285</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>314</v>
@@ -7087,10 +7099,10 @@
         <v>285</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>317</v>
@@ -7131,7 +7143,7 @@
         <v>292</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>320</v>
@@ -7169,10 +7181,10 @@
         <v>285</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>323</v>
@@ -7210,10 +7222,10 @@
         <v>285</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>326</v>
@@ -7254,7 +7266,7 @@
         <v>292</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>329</v>
@@ -7292,10 +7304,10 @@
         <v>285</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>332</v>
@@ -7333,10 +7345,10 @@
         <v>285</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>335</v>
@@ -7377,7 +7389,7 @@
         <v>292</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>338</v>
@@ -7415,10 +7427,10 @@
         <v>285</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>341</v>
@@ -7447,22 +7459,22 @@
     </row>
     <row r="123" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>285</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
@@ -7488,10 +7500,10 @@
     </row>
     <row r="124" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>285</v>
@@ -7500,10 +7512,10 @@
         <v>292</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
@@ -7529,22 +7541,22 @@
     </row>
     <row r="125" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>285</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
@@ -7570,22 +7582,22 @@
     </row>
     <row r="126" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>285</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
@@ -7611,10 +7623,10 @@
     </row>
     <row r="127" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>285</v>
@@ -7623,10 +7635,10 @@
         <v>292</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
@@ -7652,20 +7664,20 @@
     </row>
     <row r="128" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B128" s="13" t="s">
+        <v>479</v>
+      </c>
+      <c r="C128" s="13" t="s">
+        <v>480</v>
+      </c>
+      <c r="D128" s="13" t="s">
         <v>481</v>
-      </c>
-      <c r="C128" s="13" t="s">
-        <v>482</v>
-      </c>
-      <c r="D128" s="13" t="s">
-        <v>483</v>
       </c>
       <c r="E128" s="13"/>
       <c r="F128" s="14" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
@@ -7691,20 +7703,20 @@
     </row>
     <row r="129" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B129" s="13" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C129" s="13" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D129" s="13" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E129" s="13"/>
       <c r="F129" s="14" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
@@ -7730,20 +7742,20 @@
     </row>
     <row r="130" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B130" s="13" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C130" s="13" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D130" s="13" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E130" s="13"/>
       <c r="F130" s="14" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
@@ -7769,20 +7781,20 @@
     </row>
     <row r="131" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B131" s="13" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C131" s="13" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D131" s="13" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E131" s="13"/>
       <c r="F131" s="14" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
@@ -7808,20 +7820,20 @@
     </row>
     <row r="132" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B132" s="13" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C132" s="13" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D132" s="13" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E132" s="13"/>
       <c r="F132" s="14" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
@@ -7847,20 +7859,20 @@
     </row>
     <row r="133" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B133" s="13" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C133" s="13" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D133" s="13" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E133" s="13"/>
       <c r="F133" s="14" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
@@ -7886,20 +7898,20 @@
     </row>
     <row r="134" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B134" s="13" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C134" s="13" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D134" s="13" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E134" s="13"/>
       <c r="F134" s="14" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
@@ -7925,20 +7937,20 @@
     </row>
     <row r="135" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B135" s="13" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C135" s="13" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D135" s="13" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E135" s="13"/>
       <c r="F135" s="15" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
@@ -7964,20 +7976,20 @@
     </row>
     <row r="136" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B136" s="13" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C136" s="13" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D136" s="13" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E136" s="13"/>
       <c r="F136" s="15" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
@@ -8003,20 +8015,20 @@
     </row>
     <row r="137" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B137" s="13" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C137" s="13" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D137" s="13" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E137" s="13"/>
       <c r="F137" s="15" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
@@ -8042,20 +8054,20 @@
     </row>
     <row r="138" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B138" s="13" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C138" s="13" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D138" s="13" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E138" s="13"/>
       <c r="F138" s="15" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
@@ -8081,20 +8093,20 @@
     </row>
     <row r="139" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B139" s="13" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C139" s="13" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D139" s="13" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E139" s="13"/>
       <c r="F139" s="15" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
@@ -8120,20 +8132,20 @@
     </row>
     <row r="140" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B140" s="13" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C140" s="13" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D140" s="13" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E140" s="13"/>
       <c r="F140" s="15" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
@@ -8159,20 +8171,20 @@
     </row>
     <row r="141" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B141" s="13" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C141" s="13" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D141" s="13" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E141" s="13"/>
       <c r="F141" s="15" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
@@ -8198,20 +8210,20 @@
     </row>
     <row r="142" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B142" s="13" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C142" s="13" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D142" s="13" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E142" s="13"/>
       <c r="F142" s="15" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
@@ -8237,20 +8249,20 @@
     </row>
     <row r="143" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B143" s="13" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C143" s="13" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D143" s="13" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E143" s="13"/>
       <c r="F143" s="15" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
@@ -8276,20 +8288,20 @@
     </row>
     <row r="144" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B144" s="13" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C144" s="13" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D144" s="13" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E144" s="13"/>
       <c r="F144" s="15" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
@@ -8315,20 +8327,20 @@
     </row>
     <row r="145" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B145" s="13" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C145" s="13" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D145" s="13" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E145" s="13"/>
       <c r="F145" s="15" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
@@ -8354,20 +8366,20 @@
     </row>
     <row r="146" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B146" s="13" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C146" s="13" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D146" s="13" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E146" s="13"/>
       <c r="F146" s="15" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
@@ -8393,20 +8405,20 @@
     </row>
     <row r="147" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B147" s="13" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C147" s="13" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D147" s="13" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E147" s="13"/>
       <c r="F147" s="15" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
@@ -8432,22 +8444,22 @@
     </row>
     <row r="148" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C148" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="E148" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="D148" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>748</v>
-      </c>
       <c r="F148" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
@@ -8473,22 +8485,22 @@
     </row>
     <row r="149" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
@@ -8514,22 +8526,22 @@
     </row>
     <row r="150" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C150" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="E150" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="D150" s="1" t="s">
-        <v>751</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>748</v>
-      </c>
       <c r="F150" s="1" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
@@ -8555,22 +8567,22 @@
     </row>
     <row r="151" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C151" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="E151" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="D151" s="1" t="s">
-        <v>751</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>748</v>
-      </c>
       <c r="F151" s="1" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
@@ -8596,22 +8608,22 @@
     </row>
     <row r="152" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
@@ -8637,22 +8649,22 @@
     </row>
     <row r="153" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
@@ -8678,22 +8690,22 @@
     </row>
     <row r="154" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
@@ -8719,22 +8731,22 @@
     </row>
     <row r="155" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C155" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="E155" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="D155" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="E155" s="1" t="s">
-        <v>748</v>
-      </c>
       <c r="F155" s="1" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
@@ -8760,22 +8772,22 @@
     </row>
     <row r="156" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C156" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="E156" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="D156" s="1" t="s">
-        <v>749</v>
-      </c>
-      <c r="E156" s="1" t="s">
-        <v>748</v>
-      </c>
       <c r="F156" s="1" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
@@ -8801,22 +8813,22 @@
     </row>
     <row r="157" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C157" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="E157" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="D157" s="1" t="s">
-        <v>752</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>748</v>
-      </c>
       <c r="F157" s="1" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
@@ -8842,22 +8854,22 @@
     </row>
     <row r="158" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C158" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="E158" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="D158" s="1" t="s">
-        <v>749</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>748</v>
-      </c>
       <c r="F158" s="1" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
@@ -8883,22 +8895,22 @@
     </row>
     <row r="159" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
@@ -8924,22 +8936,22 @@
     </row>
     <row r="160" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C160" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="E160" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="D160" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>748</v>
-      </c>
       <c r="F160" s="1" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
@@ -8965,22 +8977,22 @@
     </row>
     <row r="161" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C161" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="E161" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="D161" s="1" t="s">
-        <v>751</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>748</v>
-      </c>
       <c r="F161" s="1" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
@@ -9006,22 +9018,22 @@
     </row>
     <row r="162" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C162" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="E162" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="D162" s="1" t="s">
-        <v>749</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>748</v>
-      </c>
       <c r="F162" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
@@ -9047,22 +9059,22 @@
     </row>
     <row r="163" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C163" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="E163" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="D163" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>748</v>
-      </c>
       <c r="F163" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
@@ -9088,22 +9100,22 @@
     </row>
     <row r="164" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
@@ -9129,22 +9141,22 @@
     </row>
     <row r="165" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
@@ -9170,22 +9182,22 @@
     </row>
     <row r="166" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C166" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="E166" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="D166" s="1" t="s">
-        <v>749</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>748</v>
-      </c>
       <c r="F166" s="1" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
@@ -9211,22 +9223,22 @@
     </row>
     <row r="167" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C167" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="E167" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="D167" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="E167" s="1" t="s">
-        <v>748</v>
-      </c>
       <c r="F167" s="1" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
@@ -9252,22 +9264,22 @@
     </row>
     <row r="168" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C168" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="E168" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="D168" s="1" t="s">
-        <v>752</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>748</v>
-      </c>
       <c r="F168" s="1" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
@@ -9293,22 +9305,22 @@
     </row>
     <row r="169" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="G169" s="1"/>
       <c r="H169" s="1"/>
@@ -9334,22 +9346,22 @@
     </row>
     <row r="170" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C170" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="E170" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="D170" s="1" t="s">
-        <v>752</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>748</v>
-      </c>
       <c r="F170" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="G170" s="1"/>
       <c r="H170" s="1"/>
@@ -9375,22 +9387,22 @@
     </row>
     <row r="171" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C171" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="E171" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="D171" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>748</v>
-      </c>
       <c r="F171" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="G171" s="1"/>
       <c r="H171" s="1"/>
@@ -9416,22 +9428,22 @@
     </row>
     <row r="172" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
@@ -9457,22 +9469,22 @@
     </row>
     <row r="173" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="G173" s="1"/>
       <c r="H173" s="1"/>
@@ -9498,22 +9510,22 @@
     </row>
     <row r="174" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="G174" s="1"/>
       <c r="H174" s="1"/>
@@ -9539,22 +9551,22 @@
     </row>
     <row r="175" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="G175" s="1"/>
       <c r="H175" s="1"/>
@@ -9580,22 +9592,22 @@
     </row>
     <row r="176" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="G176" s="1"/>
       <c r="H176" s="1"/>
@@ -9621,22 +9633,22 @@
     </row>
     <row r="177" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C177" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="E177" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="D177" s="1" t="s">
-        <v>749</v>
-      </c>
-      <c r="E177" s="1" t="s">
-        <v>748</v>
-      </c>
       <c r="F177" s="1" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="G177" s="1"/>
       <c r="H177" s="1"/>
@@ -9662,22 +9674,22 @@
     </row>
     <row r="178" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C178" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="E178" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="D178" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="E178" s="1" t="s">
-        <v>748</v>
-      </c>
       <c r="F178" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="G178" s="1"/>
       <c r="H178" s="1"/>
@@ -9703,22 +9715,22 @@
     </row>
     <row r="179" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G179" s="1"/>
       <c r="H179" s="1"/>
@@ -9744,22 +9756,22 @@
     </row>
     <row r="180" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="G180" s="1"/>
       <c r="H180" s="1"/>
@@ -9785,22 +9797,22 @@
     </row>
     <row r="181" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
@@ -9826,22 +9838,22 @@
     </row>
     <row r="182" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C182" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="E182" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="D182" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>748</v>
-      </c>
       <c r="F182" s="1" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="G182" s="1"/>
       <c r="H182" s="1"/>
@@ -9867,22 +9879,22 @@
     </row>
     <row r="183" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="G183" s="1"/>
       <c r="H183" s="1"/>
@@ -9908,22 +9920,22 @@
     </row>
     <row r="184" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
@@ -9949,22 +9961,22 @@
     </row>
     <row r="185" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C185" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="E185" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="D185" s="1" t="s">
-        <v>752</v>
-      </c>
-      <c r="E185" s="1" t="s">
-        <v>748</v>
-      </c>
       <c r="F185" s="1" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="G185" s="1"/>
       <c r="H185" s="1"/>
@@ -9990,22 +10002,22 @@
     </row>
     <row r="186" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="G186" s="1"/>
       <c r="H186" s="1"/>
@@ -10031,22 +10043,22 @@
     </row>
     <row r="187" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
@@ -10072,22 +10084,22 @@
     </row>
     <row r="188" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C188" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="E188" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="D188" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="E188" s="1" t="s">
-        <v>748</v>
-      </c>
       <c r="F188" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="G188" s="1"/>
       <c r="H188" s="1"/>
@@ -10113,22 +10125,22 @@
     </row>
     <row r="189" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C189" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="E189" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="D189" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="E189" s="1" t="s">
-        <v>748</v>
-      </c>
       <c r="F189" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G189" s="1"/>
       <c r="H189" s="1"/>
@@ -10154,22 +10166,22 @@
     </row>
     <row r="190" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C190" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="E190" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="D190" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="E190" s="1" t="s">
-        <v>748</v>
-      </c>
       <c r="F190" s="1" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="G190" s="1"/>
       <c r="H190" s="1"/>
@@ -10195,22 +10207,22 @@
     </row>
     <row r="191" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C191" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="E191" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="D191" s="1" t="s">
-        <v>751</v>
-      </c>
-      <c r="E191" s="1" t="s">
-        <v>748</v>
-      </c>
       <c r="F191" s="1" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="G191" s="1"/>
       <c r="H191" s="1"/>
@@ -10236,22 +10248,22 @@
     </row>
     <row r="192" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
@@ -10277,22 +10289,22 @@
     </row>
     <row r="193" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="F193" s="16" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="G193" s="1"/>
       <c r="H193" s="1"/>
@@ -10318,22 +10330,22 @@
     </row>
     <row r="194" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="G194" s="1"/>
       <c r="H194" s="1"/>
@@ -10359,22 +10371,22 @@
     </row>
     <row r="195" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C195" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="E195" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="D195" s="1" t="s">
-        <v>749</v>
-      </c>
-      <c r="E195" s="1" t="s">
-        <v>748</v>
-      </c>
       <c r="F195" s="1" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="G195" s="1"/>
       <c r="H195" s="1"/>
@@ -10400,22 +10412,22 @@
     </row>
     <row r="196" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="G196" s="1"/>
       <c r="H196" s="1"/>
@@ -10441,22 +10453,22 @@
     </row>
     <row r="197" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C197" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="E197" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="D197" s="1" t="s">
-        <v>751</v>
-      </c>
-      <c r="E197" s="1" t="s">
-        <v>748</v>
-      </c>
       <c r="F197" s="1" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G197" s="1"/>
       <c r="H197" s="1"/>
@@ -10482,22 +10494,22 @@
     </row>
     <row r="198" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="G198" s="1"/>
       <c r="H198" s="1"/>
@@ -10523,22 +10535,22 @@
     </row>
     <row r="199" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C199" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="E199" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="D199" s="1" t="s">
-        <v>752</v>
-      </c>
-      <c r="E199" s="1" t="s">
-        <v>748</v>
-      </c>
       <c r="F199" s="1" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="G199" s="1"/>
       <c r="H199" s="1"/>
@@ -10564,22 +10576,22 @@
     </row>
     <row r="200" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C200" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="E200" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="D200" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="E200" s="1" t="s">
-        <v>748</v>
-      </c>
       <c r="F200" s="1" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="G200" s="1"/>
       <c r="H200" s="1"/>
@@ -10605,22 +10617,22 @@
     </row>
     <row r="201" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C201" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="E201" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="D201" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="E201" s="1" t="s">
-        <v>748</v>
-      </c>
       <c r="F201" s="1" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="G201" s="1"/>
       <c r="H201" s="1"/>
@@ -10646,22 +10658,22 @@
     </row>
     <row r="202" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="G202" s="1"/>
       <c r="H202" s="1"/>
@@ -10687,22 +10699,22 @@
     </row>
     <row r="203" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="G203" s="1"/>
       <c r="H203" s="1"/>
@@ -10728,22 +10740,22 @@
     </row>
     <row r="204" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C204" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="E204" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="D204" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="E204" s="1" t="s">
-        <v>748</v>
-      </c>
       <c r="F204" s="16" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="G204" s="1"/>
       <c r="H204" s="1"/>
@@ -10769,10 +10781,10 @@
     </row>
     <row r="205" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
@@ -10802,18 +10814,18 @@
     </row>
     <row r="206" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B206" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="B206" s="2" t="s">
+      <c r="C206" s="2" t="s">
         <v>358</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>359</v>
       </c>
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
       <c r="F206" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G206" s="1"/>
       <c r="H206" s="1"/>
@@ -10839,18 +10851,18 @@
     </row>
     <row r="207" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B207" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="B207" s="2" t="s">
-        <v>362</v>
-      </c>
       <c r="C207" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
       <c r="F207" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G207" s="1"/>
       <c r="H207" s="1"/>
@@ -10876,18 +10888,18 @@
     </row>
     <row r="208" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B208" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="B208" s="2" t="s">
-        <v>365</v>
-      </c>
       <c r="C208" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
       <c r="F208" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G208" s="1"/>
       <c r="H208" s="1"/>
@@ -10913,18 +10925,18 @@
     </row>
     <row r="209" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B209" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="B209" s="2" t="s">
-        <v>368</v>
-      </c>
       <c r="C209" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
       <c r="F209" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G209" s="1"/>
       <c r="H209" s="1"/>
@@ -10950,18 +10962,18 @@
     </row>
     <row r="210" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B210" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="B210" s="2" t="s">
-        <v>371</v>
-      </c>
       <c r="C210" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
       <c r="F210" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G210" s="1"/>
       <c r="H210" s="1"/>
@@ -10987,18 +10999,18 @@
     </row>
     <row r="211" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B211" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="B211" s="2" t="s">
-        <v>374</v>
-      </c>
       <c r="C211" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
       <c r="F211" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G211" s="1"/>
       <c r="H211" s="1"/>
@@ -11024,18 +11036,18 @@
     </row>
     <row r="212" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B212" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="B212" s="2" t="s">
-        <v>377</v>
-      </c>
       <c r="C212" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
       <c r="F212" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G212" s="1"/>
       <c r="H212" s="1"/>
@@ -11061,18 +11073,18 @@
     </row>
     <row r="213" spans="1:27" ht="20" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
       <c r="F213" s="11" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="G213" s="1"/>
       <c r="H213" s="1"/>
@@ -11098,18 +11110,18 @@
     </row>
     <row r="214" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B214" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="B214" s="2" t="s">
-        <v>380</v>
-      </c>
       <c r="C214" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
       <c r="F214" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G214" s="1"/>
       <c r="H214" s="1"/>
@@ -11135,13 +11147,13 @@
     </row>
     <row r="215" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
@@ -11170,13 +11182,13 @@
     </row>
     <row r="216" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
@@ -11205,18 +11217,18 @@
     </row>
     <row r="217" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B217" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="B217" s="2" t="s">
-        <v>383</v>
-      </c>
       <c r="C217" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
       <c r="F217" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G217" s="1"/>
       <c r="H217" s="1"/>
@@ -11242,18 +11254,18 @@
     </row>
     <row r="218" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B218" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="B218" s="2" t="s">
-        <v>386</v>
-      </c>
       <c r="C218" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
       <c r="F218" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G218" s="1"/>
       <c r="H218" s="1"/>
@@ -11279,18 +11291,18 @@
     </row>
     <row r="219" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B219" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="B219" s="2" t="s">
-        <v>389</v>
-      </c>
       <c r="C219" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
       <c r="F219" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G219" s="1"/>
       <c r="H219" s="1"/>
@@ -11316,18 +11328,18 @@
     </row>
     <row r="220" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B220" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="B220" s="2" t="s">
-        <v>392</v>
-      </c>
       <c r="C220" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
       <c r="F220" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G220" s="1"/>
       <c r="H220" s="1"/>
@@ -11353,16 +11365,16 @@
     </row>
     <row r="221" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B221" s="1" t="s">
         <v>455</v>
-      </c>
-      <c r="B221" s="1" t="s">
-        <v>457</v>
       </c>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
       <c r="F221" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G221" s="1"/>
       <c r="H221" s="1"/>
@@ -11397,7 +11409,7 @@
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
       <c r="F222" s="1" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="G222" s="1"/>
       <c r="H222" s="1"/>
@@ -11432,7 +11444,7 @@
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
       <c r="F223" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="G223" s="1"/>
       <c r="H223" s="1"/>
@@ -11467,7 +11479,7 @@
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
       <c r="F224" s="1" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="G224" s="1"/>
       <c r="H224" s="1"/>
@@ -11493,16 +11505,16 @@
     </row>
     <row r="225" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>342</v>
+        <v>738</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
       <c r="F225" s="1" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="G225" s="1"/>
       <c r="H225" s="1"/>
@@ -11528,16 +11540,16 @@
     </row>
     <row r="226" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
       <c r="F226" s="1" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="G226" s="1"/>
       <c r="H226" s="1"/>
@@ -33147,8 +33159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C872"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+    <sheetView topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -33160,21 +33172,21 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>395</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>397</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>398</v>
       </c>
       <c r="C2" s="6">
         <v>1</v>
@@ -33182,10 +33194,10 @@
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C3" s="6">
         <v>2</v>
@@ -33193,10 +33205,10 @@
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C4" s="6">
         <v>3</v>
@@ -33204,10 +33216,10 @@
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C5" s="6">
         <v>4</v>
@@ -33215,10 +33227,10 @@
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C6" s="6">
         <v>5</v>
@@ -33226,10 +33238,10 @@
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>444</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>445</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
@@ -33237,7 +33249,7 @@
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B8" s="7">
         <v>2</v>
@@ -33248,7 +33260,7 @@
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B9" s="7">
         <v>3</v>
@@ -33259,10 +33271,10 @@
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C10" s="6">
         <v>4</v>
@@ -33270,7 +33282,7 @@
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B11" s="7">
         <v>5</v>
@@ -33281,7 +33293,7 @@
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B12" s="7">
         <v>6</v>
@@ -33292,10 +33304,10 @@
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C13" s="6">
         <v>7</v>
@@ -33303,10 +33315,10 @@
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>404</v>
+        <v>793</v>
       </c>
       <c r="C14" s="6">
         <v>1</v>
@@ -33314,10 +33326,10 @@
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>405</v>
+        <v>794</v>
       </c>
       <c r="C15" s="6">
         <v>2</v>
@@ -33325,10 +33337,10 @@
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>406</v>
+        <v>795</v>
       </c>
       <c r="C16" s="6">
         <v>3</v>
@@ -33336,10 +33348,10 @@
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>407</v>
+        <v>796</v>
       </c>
       <c r="C17" s="6">
         <v>4</v>
@@ -33347,10 +33359,10 @@
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>408</v>
+        <v>797</v>
       </c>
       <c r="C18" s="6">
         <v>5</v>
@@ -33358,10 +33370,10 @@
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>409</v>
+        <v>798</v>
       </c>
       <c r="C19" s="6">
         <v>6</v>
@@ -33369,10 +33381,10 @@
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>410</v>
+        <v>799</v>
       </c>
       <c r="C20" s="6">
         <v>7</v>
@@ -33380,10 +33392,10 @@
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C21" s="6">
         <v>1</v>
@@ -33391,10 +33403,10 @@
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C22" s="6">
         <v>2</v>
@@ -33402,10 +33414,10 @@
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C23" s="6">
         <v>3</v>
@@ -33413,10 +33425,10 @@
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C24" s="6">
         <v>4</v>
@@ -33424,10 +33436,10 @@
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>415</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>416</v>
       </c>
       <c r="C25" s="6">
         <v>1</v>
@@ -33435,10 +33447,10 @@
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C26" s="6">
         <v>2</v>
@@ -33446,10 +33458,10 @@
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C27" s="6">
         <v>3</v>
@@ -33457,10 +33469,10 @@
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C28" s="6">
         <v>4</v>
@@ -33468,10 +33480,10 @@
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C29" s="6">
         <v>5</v>
@@ -33479,10 +33491,10 @@
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>421</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>422</v>
       </c>
       <c r="C30" s="6">
         <v>1</v>
@@ -33490,10 +33502,10 @@
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C31" s="6">
         <v>0</v>
@@ -33501,10 +33513,10 @@
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C32" s="6">
         <v>1</v>
@@ -33512,10 +33524,10 @@
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C33" s="6">
         <v>2</v>
@@ -33523,10 +33535,10 @@
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C34" s="6">
         <v>3</v>
@@ -33534,10 +33546,10 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C35" s="6">
         <v>4</v>
@@ -33545,10 +33557,10 @@
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C36" s="6">
         <v>5</v>
@@ -33556,10 +33568,10 @@
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C37" s="6">
         <v>6</v>
@@ -33567,10 +33579,10 @@
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C38" s="6">
         <v>7</v>
@@ -33578,10 +33590,10 @@
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C39" s="6">
         <v>8</v>
@@ -33589,10 +33601,10 @@
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C40" s="6">
         <v>1</v>
@@ -33600,10 +33612,10 @@
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C41" s="6">
         <v>2</v>
@@ -33611,10 +33623,10 @@
     </row>
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>431</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>432</v>
       </c>
       <c r="C42" s="6">
         <v>3</v>
@@ -33622,10 +33634,10 @@
     </row>
     <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C43" s="6">
         <v>4</v>
@@ -33633,10 +33645,10 @@
     </row>
     <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C44" s="6">
         <v>5</v>
@@ -33644,7 +33656,7 @@
     </row>
     <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B45" s="7">
         <v>10</v>
@@ -33655,7 +33667,7 @@
     </row>
     <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B46" s="7">
         <v>9</v>
@@ -33666,7 +33678,7 @@
     </row>
     <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B47" s="7">
         <v>8</v>
@@ -33677,7 +33689,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B48" s="7">
         <v>7</v>
@@ -33688,7 +33700,7 @@
     </row>
     <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B49" s="7">
         <v>6</v>
@@ -33699,7 +33711,7 @@
     </row>
     <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B50" s="7">
         <v>5</v>
@@ -33710,7 +33722,7 @@
     </row>
     <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B51" s="7">
         <v>4</v>
@@ -33721,7 +33733,7 @@
     </row>
     <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B52" s="7">
         <v>3</v>
@@ -33732,7 +33744,7 @@
     </row>
     <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B53" s="7">
         <v>2</v>
@@ -33743,7 +33755,7 @@
     </row>
     <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B54" s="7">
         <v>1</v>
@@ -33754,7 +33766,7 @@
     </row>
     <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B55" s="7">
         <v>0</v>
@@ -33765,7 +33777,7 @@
     </row>
     <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B56" s="7">
         <v>1</v>
@@ -33776,7 +33788,7 @@
     </row>
     <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B57" s="7">
         <v>2</v>
@@ -33787,7 +33799,7 @@
     </row>
     <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B58" s="7">
         <v>3</v>
@@ -33798,7 +33810,7 @@
     </row>
     <row r="59" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B59" s="7">
         <v>4</v>
@@ -33809,7 +33821,7 @@
     </row>
     <row r="60" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B60" s="7">
         <v>5</v>
@@ -33820,7 +33832,7 @@
     </row>
     <row r="61" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B61" s="7">
         <v>6</v>
@@ -33831,7 +33843,7 @@
     </row>
     <row r="62" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B62" s="7">
         <v>7</v>
@@ -33842,7 +33854,7 @@
     </row>
     <row r="63" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B63" s="7">
         <v>8</v>
@@ -33853,7 +33865,7 @@
     </row>
     <row r="64" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B64" s="7">
         <v>9</v>
@@ -33864,7 +33876,7 @@
     </row>
     <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B65" s="7">
         <v>10</v>
@@ -33875,7 +33887,7 @@
     </row>
     <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B66" s="7">
         <v>0</v>
@@ -33886,7 +33898,7 @@
     </row>
     <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B67" s="7">
         <v>1</v>
@@ -33897,7 +33909,7 @@
     </row>
     <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B68" s="7">
         <v>2</v>
@@ -33908,7 +33920,7 @@
     </row>
     <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B69" s="7">
         <v>3</v>
@@ -33919,7 +33931,7 @@
     </row>
     <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B70" s="7">
         <v>4</v>
@@ -33930,7 +33942,7 @@
     </row>
     <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B71" s="7">
         <v>5</v>
@@ -33941,7 +33953,7 @@
     </row>
     <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B72" s="7">
         <v>6</v>
@@ -33952,7 +33964,7 @@
     </row>
     <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B73" s="7">
         <v>7</v>
@@ -33963,7 +33975,7 @@
     </row>
     <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B74" s="7">
         <v>8</v>
@@ -33974,7 +33986,7 @@
     </row>
     <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B75" s="7">
         <v>9</v>
@@ -33985,7 +33997,7 @@
     </row>
     <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B76" s="7">
         <v>10</v>
@@ -33996,10 +34008,10 @@
     </row>
     <row r="77" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>773</v>
+        <v>790</v>
       </c>
       <c r="C77" s="6">
         <v>1</v>
@@ -34007,7 +34019,7 @@
     </row>
     <row r="78" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B78" s="7">
         <v>2</v>
@@ -34018,10 +34030,10 @@
     </row>
     <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>448</v>
+        <v>791</v>
       </c>
       <c r="C79" s="6">
         <v>3</v>
@@ -34029,7 +34041,7 @@
     </row>
     <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B80" s="7">
         <v>4</v>
@@ -34040,10 +34052,10 @@
     </row>
     <row r="81" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>772</v>
+        <v>792</v>
       </c>
       <c r="C81" s="6">
         <v>5</v>
@@ -34051,10 +34063,10 @@
     </row>
     <row r="82" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C82" s="6">
         <v>1</v>
@@ -34062,10 +34074,10 @@
     </row>
     <row r="83" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="B83" s="6" t="s">
         <v>442</v>
-      </c>
-      <c r="B83" s="6" t="s">
-        <v>443</v>
       </c>
       <c r="C83" s="6">
         <v>2</v>
@@ -34073,10 +34085,10 @@
     </row>
     <row r="84" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C84" s="6">
         <v>3</v>
@@ -34084,10 +34096,10 @@
     </row>
     <row r="85" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C85" s="6">
         <v>4</v>
@@ -34095,10 +34107,10 @@
     </row>
     <row r="86" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C86" s="6">
         <v>5</v>
@@ -34106,10 +34118,10 @@
     </row>
     <row r="87" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C87" s="6">
         <v>6</v>
@@ -34117,10 +34129,10 @@
     </row>
     <row r="88" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C88" s="6">
         <v>7</v>
@@ -34128,10 +34140,10 @@
     </row>
     <row r="89" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C89" s="6">
         <v>0</v>
@@ -34139,10 +34151,10 @@
     </row>
     <row r="90" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C90" s="6">
         <v>1</v>
@@ -34150,10 +34162,10 @@
     </row>
     <row r="91" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C91" s="6">
         <v>2</v>
@@ -34161,10 +34173,10 @@
     </row>
     <row r="92" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C92" s="6">
         <v>3</v>
@@ -34172,10 +34184,10 @@
     </row>
     <row r="93" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C93" s="6">
         <v>4</v>
@@ -34183,10 +34195,10 @@
     </row>
     <row r="94" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C94" s="6">
         <v>4</v>
@@ -34194,10 +34206,10 @@
     </row>
     <row r="95" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C95" s="6">
         <v>3</v>
@@ -34205,10 +34217,10 @@
     </row>
     <row r="96" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C96" s="6">
         <v>2</v>
@@ -34216,10 +34228,10 @@
     </row>
     <row r="97" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C97" s="6">
         <v>1</v>
@@ -34227,10 +34239,10 @@
     </row>
     <row r="98" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C98" s="6">
         <v>0</v>
@@ -34238,10 +34250,10 @@
     </row>
     <row r="99" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C99" s="6">
         <v>0</v>
@@ -34249,10 +34261,10 @@
     </row>
     <row r="100" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C100" s="6">
         <v>1</v>
@@ -34260,10 +34272,10 @@
     </row>
     <row r="101" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C101" s="6">
         <v>1</v>
@@ -34271,10 +34283,10 @@
     </row>
     <row r="102" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C102" s="6">
         <v>0</v>
@@ -34282,10 +34294,10 @@
     </row>
     <row r="103" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="13" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B103" s="13" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C103" s="13">
         <v>1</v>
@@ -34293,10 +34305,10 @@
     </row>
     <row r="104" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="13" t="s">
+        <v>550</v>
+      </c>
+      <c r="B104" s="13" t="s">
         <v>552</v>
-      </c>
-      <c r="B104" s="13" t="s">
-        <v>554</v>
       </c>
       <c r="C104" s="13">
         <v>2</v>
@@ -34304,10 +34316,10 @@
     </row>
     <row r="105" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="13" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B105" s="13" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C105" s="13">
         <v>3</v>
@@ -34315,10 +34327,10 @@
     </row>
     <row r="106" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="13" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B106" s="13" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C106" s="13">
         <v>4</v>
@@ -34326,10 +34338,10 @@
     </row>
     <row r="107" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="13" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B107" s="13" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C107" s="13">
         <v>5</v>
@@ -34337,10 +34349,10 @@
     </row>
     <row r="108" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="13" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B108" s="13" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C108" s="13">
         <v>5</v>
@@ -34348,10 +34360,10 @@
     </row>
     <row r="109" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="13" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C109" s="13">
         <v>4</v>
@@ -34359,10 +34371,10 @@
     </row>
     <row r="110" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="13" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B110" s="13" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C110" s="13">
         <v>3</v>
@@ -34370,10 +34382,10 @@
     </row>
     <row r="111" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="13" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B111" s="13" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C111" s="13">
         <v>2</v>
@@ -34381,10 +34393,10 @@
     </row>
     <row r="112" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="13" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B112" s="13" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C112" s="13">
         <v>1</v>
@@ -34392,10 +34404,10 @@
     </row>
     <row r="113" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B113" s="16" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C113">
         <v>3</v>
@@ -34403,10 +34415,10 @@
     </row>
     <row r="114" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B114" s="16" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C114">
         <v>2</v>
@@ -34414,10 +34426,10 @@
     </row>
     <row r="115" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B115" s="17" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -34425,10 +34437,10 @@
     </row>
     <row r="116" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B116" s="16" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C116">
         <v>-1</v>
@@ -34436,10 +34448,10 @@
     </row>
     <row r="117" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B117" s="16" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C117">
         <v>-2</v>
@@ -34447,10 +34459,10 @@
     </row>
     <row r="118" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B118" s="16" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C118">
         <v>-3</v>
@@ -34461,7 +34473,7 @@
         <v>229</v>
       </c>
       <c r="B119" s="16" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -34472,7 +34484,7 @@
         <v>229</v>
       </c>
       <c r="B120" s="16" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -34483,7 +34495,7 @@
         <v>229</v>
       </c>
       <c r="B121" s="17" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -34494,7 +34506,7 @@
         <v>229</v>
       </c>
       <c r="B122" s="16" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -34505,7 +34517,7 @@
         <v>229</v>
       </c>
       <c r="B123" s="16" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -34516,7 +34528,7 @@
         <v>229</v>
       </c>
       <c r="B124" s="16" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -34527,7 +34539,7 @@
         <v>268</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -34538,7 +34550,7 @@
         <v>268</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -34549,7 +34561,7 @@
         <v>268</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -34560,7 +34572,7 @@
         <v>268</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -34571,7 +34583,7 @@
         <v>268</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -34700,10 +34712,10 @@
     </row>
     <row r="141" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="16" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C141" s="6">
         <v>0</v>
@@ -34711,10 +34723,10 @@
     </row>
     <row r="142" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="16" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C142" s="6">
         <v>0</v>
@@ -34722,10 +34734,10 @@
     </row>
     <row r="143" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="16" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C143" s="6">
         <v>0</v>
@@ -34733,10 +34745,10 @@
     </row>
     <row r="144" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="16" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C144" s="6">
         <v>0</v>
@@ -34744,10 +34756,10 @@
     </row>
     <row r="145" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="16" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C145" s="6">
         <v>0</v>
@@ -34755,10 +34767,10 @@
     </row>
     <row r="146" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="16" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C146" s="6">
         <v>0</v>
@@ -34766,10 +34778,10 @@
     </row>
     <row r="147" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="16" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C147">
         <v>1</v>
